--- a/file/2.xlsx
+++ b/file/2.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -400,10 +400,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>117862420</v>
+        <v>107914548</v>
       </c>
       <c r="C2" s="2">
-        <v>41153</v>
+        <v>41487</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -411,10 +411,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>117919768</v>
+        <v>114416287</v>
       </c>
       <c r="C3" s="2">
-        <v>41183</v>
+        <v>41518</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -422,10 +422,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>105595273</v>
+        <v>113011957</v>
       </c>
       <c r="C4" s="2">
-        <v>41214</v>
+        <v>41548</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -433,10 +433,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>110486008</v>
+        <v>100007864</v>
       </c>
       <c r="C5" s="2">
-        <v>41244</v>
+        <v>41579</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -444,10 +444,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>118138628</v>
+        <v>113299651</v>
       </c>
       <c r="C6" s="2">
-        <v>41275</v>
+        <v>41609</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -455,10 +455,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>95452191</v>
+        <v>119734942</v>
       </c>
       <c r="C7" s="2">
-        <v>41306</v>
+        <v>41640</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -466,10 +466,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>120655612</v>
+        <v>109033460</v>
       </c>
       <c r="C8" s="2">
-        <v>41334</v>
+        <v>41671</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -477,10 +477,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>97097695</v>
+        <v>105138258</v>
       </c>
       <c r="C9" s="2">
-        <v>41365</v>
+        <v>41699</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -488,10 +488,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>115794158</v>
+        <v>114101500</v>
       </c>
       <c r="C10" s="2">
-        <v>41395</v>
+        <v>41730</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -499,10 +499,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>116287060</v>
+        <v>103832697</v>
       </c>
       <c r="C11" s="2">
-        <v>41426</v>
+        <v>41760</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>105323575</v>
+        <v>115234388</v>
       </c>
       <c r="C12" s="2">
-        <v>41456</v>
+        <v>41791</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -521,10 +521,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>107914548</v>
+        <v>123220281</v>
       </c>
       <c r="C13" s="2">
-        <v>41487</v>
+        <v>41821</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -532,10 +532,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>114416287</v>
+        <v>123744417</v>
       </c>
       <c r="C14" s="2">
-        <v>41518</v>
+        <v>41852</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -543,10 +543,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>113011957</v>
+        <v>118310195</v>
       </c>
       <c r="C15" s="2">
-        <v>41548</v>
+        <v>41883</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -554,10 +554,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>100007864</v>
+        <v>116306474</v>
       </c>
       <c r="C16" s="2">
-        <v>41579</v>
+        <v>41913</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -565,10 +565,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>113299651</v>
+        <v>101906796</v>
       </c>
       <c r="C17" s="2">
-        <v>41609</v>
+        <v>41944</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -576,10 +576,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>119734942</v>
+        <v>116183940</v>
       </c>
       <c r="C18" s="2">
-        <v>41640</v>
+        <v>41974</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -587,10 +587,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>109033460</v>
+        <v>108824065</v>
       </c>
       <c r="C19" s="2">
-        <v>41671</v>
+        <v>42005</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -598,10 +598,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>105138258</v>
+        <v>104102896</v>
       </c>
       <c r="C20" s="2">
-        <v>41699</v>
+        <v>42036</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -609,10 +609,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>114101500</v>
+        <v>107609530</v>
       </c>
       <c r="C21" s="2">
-        <v>41730</v>
+        <v>42064</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -620,10 +620,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>103832697</v>
+        <v>103419734</v>
       </c>
       <c r="C22" s="2">
-        <v>41760</v>
+        <v>42095</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -631,10 +631,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>115234388</v>
+        <v>115758021</v>
       </c>
       <c r="C23" s="2">
-        <v>41791</v>
+        <v>42125</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -642,10 +642,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>123220281</v>
+        <v>115116636</v>
       </c>
       <c r="C24" s="2">
-        <v>41821</v>
+        <v>42156</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -653,10 +653,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>123744417</v>
+        <v>110596119</v>
       </c>
       <c r="C25" s="2">
-        <v>41852</v>
+        <v>42186</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -664,10 +664,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>118310195</v>
+        <v>99809056</v>
       </c>
       <c r="C26" s="2">
-        <v>41883</v>
+        <v>42217</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -675,10 +675,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>116306474</v>
+        <v>113214304</v>
       </c>
       <c r="C27" s="2">
-        <v>41913</v>
+        <v>42248</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -686,10 +686,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>101906796</v>
+        <v>113232830</v>
       </c>
       <c r="C28" s="2">
-        <v>41944</v>
+        <v>42278</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -697,10 +697,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>116183940</v>
+        <v>110884556</v>
       </c>
       <c r="C29" s="2">
-        <v>41974</v>
+        <v>42309</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -708,10 +708,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>108824065</v>
+        <v>113235372</v>
       </c>
       <c r="C30" s="2">
-        <v>42005</v>
+        <v>42339</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -719,10 +719,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>104102896</v>
+        <v>109097233</v>
       </c>
       <c r="C31" s="2">
-        <v>42036</v>
+        <v>42370</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -730,10 +730,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>107609530</v>
+        <v>96816239</v>
       </c>
       <c r="C32" s="2">
-        <v>42064</v>
+        <v>42401</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -741,10 +741,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>103419734</v>
+        <v>106470563</v>
       </c>
       <c r="C33" s="2">
-        <v>42095</v>
+        <v>42430</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -752,10 +752,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>115758021</v>
+        <v>108677581</v>
       </c>
       <c r="C34" s="2">
-        <v>42125</v>
+        <v>42461</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -763,10 +763,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>115116636</v>
+        <v>100267834</v>
       </c>
       <c r="C35" s="2">
-        <v>42156</v>
+        <v>42491</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -774,10 +774,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>110596119</v>
+        <v>119467535</v>
       </c>
       <c r="C36" s="2">
-        <v>42186</v>
+        <v>42522</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -785,10 +785,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>99809056</v>
+        <v>114674784</v>
       </c>
       <c r="C37" s="2">
-        <v>42217</v>
+        <v>42552</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -796,10 +796,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>113214304</v>
+        <v>110809840</v>
       </c>
       <c r="C38" s="2">
-        <v>42248</v>
+        <v>42583</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -807,10 +807,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>113232830</v>
+        <v>103860407</v>
       </c>
       <c r="C39" s="2">
-        <v>42278</v>
+        <v>42614</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -818,10 +818,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>110884556</v>
+        <v>108631992</v>
       </c>
       <c r="C40" s="2">
-        <v>42309</v>
+        <v>42644</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -829,10 +829,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>113235372</v>
+        <v>105449233</v>
       </c>
       <c r="C41" s="2">
-        <v>42339</v>
+        <v>42675</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -840,10 +840,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>109097233</v>
+        <v>123535195</v>
       </c>
       <c r="C42" s="2">
-        <v>42370</v>
+        <v>42705</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -851,10 +851,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>96816239</v>
+        <v>109038478</v>
       </c>
       <c r="C43" s="2">
-        <v>42401</v>
+        <v>42736</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -862,10 +862,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>106470563</v>
+        <v>100505843</v>
       </c>
       <c r="C44" s="2">
-        <v>42430</v>
+        <v>42767</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -873,10 +873,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>108677581</v>
+        <v>109492840</v>
       </c>
       <c r="C45" s="2">
-        <v>42461</v>
+        <v>42795</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -884,10 +884,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>100267834</v>
+        <v>114097310</v>
       </c>
       <c r="C46" s="2">
-        <v>42491</v>
+        <v>42826</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -895,10 +895,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>119467535</v>
+        <v>109604698</v>
       </c>
       <c r="C47" s="2">
-        <v>42522</v>
+        <v>42856</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -906,10 +906,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>114674784</v>
+        <v>112859815</v>
       </c>
       <c r="C48" s="2">
-        <v>42552</v>
+        <v>42887</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -917,10 +917,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>110809840</v>
+        <v>115944265</v>
       </c>
       <c r="C49" s="2">
-        <v>42583</v>
+        <v>42917</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -928,10 +928,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>103860407</v>
+        <v>114791190</v>
       </c>
       <c r="C50" s="2">
-        <v>42614</v>
+        <v>42948</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -939,130 +939,9 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>108631992</v>
+        <v>106541021</v>
       </c>
       <c r="C51" s="2">
-        <v>42644</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52">
-        <v>105449233</v>
-      </c>
-      <c r="C52" s="2">
-        <v>42675</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53">
-        <v>123535195</v>
-      </c>
-      <c r="C53" s="2">
-        <v>42705</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54">
-        <v>109038478</v>
-      </c>
-      <c r="C54" s="2">
-        <v>42736</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55">
-        <v>100505843</v>
-      </c>
-      <c r="C55" s="2">
-        <v>42767</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56">
-        <v>109492840</v>
-      </c>
-      <c r="C56" s="2">
-        <v>42795</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57">
-        <v>114097310</v>
-      </c>
-      <c r="C57" s="2">
-        <v>42826</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58">
-        <v>109604698</v>
-      </c>
-      <c r="C58" s="2">
-        <v>42856</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59">
-        <v>112859815</v>
-      </c>
-      <c r="C59" s="2">
-        <v>42887</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60">
-        <v>115944265</v>
-      </c>
-      <c r="C60" s="2">
-        <v>42917</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61">
-        <v>114791190</v>
-      </c>
-      <c r="C61" s="2">
-        <v>42948</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62">
-        <v>106541021</v>
-      </c>
-      <c r="C62" s="2">
         <v>42979</v>
       </c>
     </row>

--- a/file/2.xlsx
+++ b/file/2.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -400,10 +400,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>107914548</v>
+        <v>6223006</v>
       </c>
       <c r="C2" s="2">
-        <v>41487</v>
+        <v>42948</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -411,10 +411,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>114416287</v>
+        <v>4347481</v>
       </c>
       <c r="C3" s="2">
-        <v>41518</v>
+        <v>42949</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -422,10 +422,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>113011957</v>
+        <v>1721765</v>
       </c>
       <c r="C4" s="2">
-        <v>41548</v>
+        <v>42950</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -433,10 +433,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>100007864</v>
+        <v>3740875</v>
       </c>
       <c r="C5" s="2">
-        <v>41579</v>
+        <v>42951</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -444,10 +444,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>113299651</v>
+        <v>2488827</v>
       </c>
       <c r="C6" s="2">
-        <v>41609</v>
+        <v>42952</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -455,10 +455,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>119734942</v>
+        <v>1827919</v>
       </c>
       <c r="C7" s="2">
-        <v>41640</v>
+        <v>42953</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -466,10 +466,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>109033460</v>
+        <v>3136932</v>
       </c>
       <c r="C8" s="2">
-        <v>41671</v>
+        <v>42954</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -477,10 +477,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>105138258</v>
+        <v>3671248</v>
       </c>
       <c r="C9" s="2">
-        <v>41699</v>
+        <v>42955</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -488,10 +488,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>114101500</v>
+        <v>2021511</v>
       </c>
       <c r="C10" s="2">
-        <v>41730</v>
+        <v>42956</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -499,10 +499,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>103832697</v>
+        <v>3506292</v>
       </c>
       <c r="C11" s="2">
-        <v>41760</v>
+        <v>42957</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>115234388</v>
+        <v>4436521</v>
       </c>
       <c r="C12" s="2">
-        <v>41791</v>
+        <v>42958</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -521,10 +521,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>123220281</v>
+        <v>3902471</v>
       </c>
       <c r="C13" s="2">
-        <v>41821</v>
+        <v>42959</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -532,10 +532,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>123744417</v>
+        <v>3899049</v>
       </c>
       <c r="C14" s="2">
-        <v>41852</v>
+        <v>42960</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -543,10 +543,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>118310195</v>
+        <v>4883362</v>
       </c>
       <c r="C15" s="2">
-        <v>41883</v>
+        <v>42961</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -554,10 +554,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>116306474</v>
+        <v>4714594</v>
       </c>
       <c r="C16" s="2">
-        <v>41913</v>
+        <v>42962</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -565,10 +565,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>101906796</v>
+        <v>3188443</v>
       </c>
       <c r="C17" s="2">
-        <v>41944</v>
+        <v>42963</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -576,10 +576,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>116183940</v>
+        <v>4976187</v>
       </c>
       <c r="C18" s="2">
-        <v>41974</v>
+        <v>42964</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -587,10 +587,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>108824065</v>
+        <v>2300739</v>
       </c>
       <c r="C19" s="2">
-        <v>42005</v>
+        <v>42965</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -598,10 +598,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>104102896</v>
+        <v>4211225</v>
       </c>
       <c r="C20" s="2">
-        <v>42036</v>
+        <v>42966</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -609,10 +609,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>107609530</v>
+        <v>4957748</v>
       </c>
       <c r="C21" s="2">
-        <v>42064</v>
+        <v>42967</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -620,10 +620,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>103419734</v>
+        <v>5719060</v>
       </c>
       <c r="C22" s="2">
-        <v>42095</v>
+        <v>42968</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -631,10 +631,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>115758021</v>
+        <v>2615170</v>
       </c>
       <c r="C23" s="2">
-        <v>42125</v>
+        <v>42969</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -642,10 +642,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>115116636</v>
+        <v>2331414</v>
       </c>
       <c r="C24" s="2">
-        <v>42156</v>
+        <v>42970</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -653,10 +653,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>110596119</v>
+        <v>5199411</v>
       </c>
       <c r="C25" s="2">
-        <v>42186</v>
+        <v>42971</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -664,10 +664,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>99809056</v>
+        <v>2729293</v>
       </c>
       <c r="C26" s="2">
-        <v>42217</v>
+        <v>42972</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -675,10 +675,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>113214304</v>
+        <v>4494490</v>
       </c>
       <c r="C27" s="2">
-        <v>42248</v>
+        <v>42973</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -686,10 +686,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>113232830</v>
+        <v>4600889</v>
       </c>
       <c r="C28" s="2">
-        <v>42278</v>
+        <v>42974</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -697,10 +697,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>110884556</v>
+        <v>3142328</v>
       </c>
       <c r="C29" s="2">
-        <v>42309</v>
+        <v>42975</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -708,10 +708,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>113235372</v>
+        <v>2881315</v>
       </c>
       <c r="C30" s="2">
-        <v>42339</v>
+        <v>42976</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -719,10 +719,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>109097233</v>
+        <v>4098343</v>
       </c>
       <c r="C31" s="2">
-        <v>42370</v>
+        <v>42977</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -730,10 +730,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>96816239</v>
+        <v>2823282</v>
       </c>
       <c r="C32" s="2">
-        <v>42401</v>
+        <v>42978</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -741,10 +741,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>106470563</v>
+        <v>1326791</v>
       </c>
       <c r="C33" s="2">
-        <v>42430</v>
+        <v>42979</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -752,10 +752,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>108677581</v>
+        <v>3644049</v>
       </c>
       <c r="C34" s="2">
-        <v>42461</v>
+        <v>42980</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -763,10 +763,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>100267834</v>
+        <v>5336899</v>
       </c>
       <c r="C35" s="2">
-        <v>42491</v>
+        <v>42981</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -774,10 +774,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>119467535</v>
+        <v>3400545</v>
       </c>
       <c r="C36" s="2">
-        <v>42522</v>
+        <v>42982</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -785,10 +785,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>114674784</v>
+        <v>4586362</v>
       </c>
       <c r="C37" s="2">
-        <v>42552</v>
+        <v>42983</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -796,10 +796,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>110809840</v>
+        <v>2420770</v>
       </c>
       <c r="C38" s="2">
-        <v>42583</v>
+        <v>42984</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -807,10 +807,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>103860407</v>
+        <v>2750071</v>
       </c>
       <c r="C39" s="2">
-        <v>42614</v>
+        <v>42985</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -818,10 +818,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>108631992</v>
+        <v>1416658</v>
       </c>
       <c r="C40" s="2">
-        <v>42644</v>
+        <v>42986</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -829,10 +829,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>105449233</v>
+        <v>3709129</v>
       </c>
       <c r="C41" s="2">
-        <v>42675</v>
+        <v>42987</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -840,10 +840,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>123535195</v>
+        <v>2940634</v>
       </c>
       <c r="C42" s="2">
-        <v>42705</v>
+        <v>42988</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -851,10 +851,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>109038478</v>
+        <v>5067419</v>
       </c>
       <c r="C43" s="2">
-        <v>42736</v>
+        <v>42989</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -862,10 +862,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>100505843</v>
+        <v>3608774</v>
       </c>
       <c r="C44" s="2">
-        <v>42767</v>
+        <v>42990</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -873,10 +873,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>109492840</v>
+        <v>2326671</v>
       </c>
       <c r="C45" s="2">
-        <v>42795</v>
+        <v>42991</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -884,10 +884,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>114097310</v>
+        <v>2936348</v>
       </c>
       <c r="C46" s="2">
-        <v>42826</v>
+        <v>42992</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -895,10 +895,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>109604698</v>
+        <v>3007965</v>
       </c>
       <c r="C47" s="2">
-        <v>42856</v>
+        <v>42993</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -906,10 +906,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>112859815</v>
+        <v>4110483</v>
       </c>
       <c r="C48" s="2">
-        <v>42887</v>
+        <v>42994</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -917,10 +917,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>115944265</v>
+        <v>2295632</v>
       </c>
       <c r="C49" s="2">
-        <v>42917</v>
+        <v>42995</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -928,10 +928,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>114791190</v>
+        <v>3400293</v>
       </c>
       <c r="C50" s="2">
-        <v>42948</v>
+        <v>42996</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -939,10 +939,131 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>106541021</v>
+        <v>3335676</v>
       </c>
       <c r="C51" s="2">
-        <v>42979</v>
+        <v>42997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>3611202</v>
+      </c>
+      <c r="C52" s="2">
+        <v>42998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>3360765</v>
+      </c>
+      <c r="C53" s="2">
+        <v>42999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>4679269</v>
+      </c>
+      <c r="C54" s="2">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>6456648</v>
+      </c>
+      <c r="C55" s="2">
+        <v>43001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>2617062</v>
+      </c>
+      <c r="C56" s="2">
+        <v>43002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>5116066</v>
+      </c>
+      <c r="C57" s="2">
+        <v>43003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>2700403</v>
+      </c>
+      <c r="C58" s="2">
+        <v>43004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>4531266</v>
+      </c>
+      <c r="C59" s="2">
+        <v>43005</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>3843639</v>
+      </c>
+      <c r="C60" s="2">
+        <v>43006</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>3993075</v>
+      </c>
+      <c r="C61" s="2">
+        <v>43007</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>4010457</v>
+      </c>
+      <c r="C62" s="2">
+        <v>43008</v>
       </c>
     </row>
   </sheetData>

--- a/file/2.xlsx
+++ b/file/2.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -400,10 +400,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6223006</v>
+        <v>1326791</v>
       </c>
       <c r="C2" s="2">
-        <v>42948</v>
+        <v>42979</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -411,10 +411,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4347481</v>
+        <v>3644049</v>
       </c>
       <c r="C3" s="2">
-        <v>42949</v>
+        <v>42980</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -422,10 +422,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1721765</v>
+        <v>5336899</v>
       </c>
       <c r="C4" s="2">
-        <v>42950</v>
+        <v>42981</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -433,10 +433,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3740875</v>
+        <v>3400545</v>
       </c>
       <c r="C5" s="2">
-        <v>42951</v>
+        <v>42982</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -444,10 +444,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2488827</v>
+        <v>4586362</v>
       </c>
       <c r="C6" s="2">
-        <v>42952</v>
+        <v>42983</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -455,10 +455,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1827919</v>
+        <v>2420770</v>
       </c>
       <c r="C7" s="2">
-        <v>42953</v>
+        <v>42984</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -466,10 +466,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3136932</v>
+        <v>2750071</v>
       </c>
       <c r="C8" s="2">
-        <v>42954</v>
+        <v>42985</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -477,10 +477,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3671248</v>
+        <v>1416658</v>
       </c>
       <c r="C9" s="2">
-        <v>42955</v>
+        <v>42986</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -488,10 +488,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2021511</v>
+        <v>3709129</v>
       </c>
       <c r="C10" s="2">
-        <v>42956</v>
+        <v>42987</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -499,10 +499,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3506292</v>
+        <v>2940634</v>
       </c>
       <c r="C11" s="2">
-        <v>42957</v>
+        <v>42988</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4436521</v>
+        <v>5067419</v>
       </c>
       <c r="C12" s="2">
-        <v>42958</v>
+        <v>42989</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -521,10 +521,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3902471</v>
+        <v>3608774</v>
       </c>
       <c r="C13" s="2">
-        <v>42959</v>
+        <v>42990</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -532,10 +532,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3899049</v>
+        <v>2326671</v>
       </c>
       <c r="C14" s="2">
-        <v>42960</v>
+        <v>42991</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -543,10 +543,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4883362</v>
+        <v>2936348</v>
       </c>
       <c r="C15" s="2">
-        <v>42961</v>
+        <v>42992</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -554,10 +554,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4714594</v>
+        <v>3007965</v>
       </c>
       <c r="C16" s="2">
-        <v>42962</v>
+        <v>42993</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -565,10 +565,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3188443</v>
+        <v>4110483</v>
       </c>
       <c r="C17" s="2">
-        <v>42963</v>
+        <v>42994</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -576,10 +576,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4976187</v>
+        <v>2295632</v>
       </c>
       <c r="C18" s="2">
-        <v>42964</v>
+        <v>42995</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -587,10 +587,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2300739</v>
+        <v>3400293</v>
       </c>
       <c r="C19" s="2">
-        <v>42965</v>
+        <v>42996</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -598,10 +598,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4211225</v>
+        <v>3335676</v>
       </c>
       <c r="C20" s="2">
-        <v>42966</v>
+        <v>42997</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -609,10 +609,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4957748</v>
+        <v>3611202</v>
       </c>
       <c r="C21" s="2">
-        <v>42967</v>
+        <v>42998</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -620,10 +620,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5719060</v>
+        <v>3360765</v>
       </c>
       <c r="C22" s="2">
-        <v>42968</v>
+        <v>42999</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -631,10 +631,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2615170</v>
+        <v>4679269</v>
       </c>
       <c r="C23" s="2">
-        <v>42969</v>
+        <v>43000</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -642,10 +642,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2331414</v>
+        <v>6456648</v>
       </c>
       <c r="C24" s="2">
-        <v>42970</v>
+        <v>43001</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -653,10 +653,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5199411</v>
+        <v>2617062</v>
       </c>
       <c r="C25" s="2">
-        <v>42971</v>
+        <v>43002</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -664,10 +664,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2729293</v>
+        <v>5116066</v>
       </c>
       <c r="C26" s="2">
-        <v>42972</v>
+        <v>43003</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -675,10 +675,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>4494490</v>
+        <v>2700403</v>
       </c>
       <c r="C27" s="2">
-        <v>42973</v>
+        <v>43004</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -686,10 +686,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>4600889</v>
+        <v>4531266</v>
       </c>
       <c r="C28" s="2">
-        <v>42974</v>
+        <v>43005</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -697,10 +697,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>3142328</v>
+        <v>3843639</v>
       </c>
       <c r="C29" s="2">
-        <v>42975</v>
+        <v>43006</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -708,10 +708,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>2881315</v>
+        <v>3993075</v>
       </c>
       <c r="C30" s="2">
-        <v>42976</v>
+        <v>43007</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -719,350 +719,9 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>4098343</v>
+        <v>4010457</v>
       </c>
       <c r="C31" s="2">
-        <v>42977</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>2823282</v>
-      </c>
-      <c r="C32" s="2">
-        <v>42978</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>1326791</v>
-      </c>
-      <c r="C33" s="2">
-        <v>42979</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>3644049</v>
-      </c>
-      <c r="C34" s="2">
-        <v>42980</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>5336899</v>
-      </c>
-      <c r="C35" s="2">
-        <v>42981</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>3400545</v>
-      </c>
-      <c r="C36" s="2">
-        <v>42982</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>4586362</v>
-      </c>
-      <c r="C37" s="2">
-        <v>42983</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>2420770</v>
-      </c>
-      <c r="C38" s="2">
-        <v>42984</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>2750071</v>
-      </c>
-      <c r="C39" s="2">
-        <v>42985</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>1416658</v>
-      </c>
-      <c r="C40" s="2">
-        <v>42986</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>3709129</v>
-      </c>
-      <c r="C41" s="2">
-        <v>42987</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>2940634</v>
-      </c>
-      <c r="C42" s="2">
-        <v>42988</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>5067419</v>
-      </c>
-      <c r="C43" s="2">
-        <v>42989</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44">
-        <v>3608774</v>
-      </c>
-      <c r="C44" s="2">
-        <v>42990</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45">
-        <v>2326671</v>
-      </c>
-      <c r="C45" s="2">
-        <v>42991</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46">
-        <v>2936348</v>
-      </c>
-      <c r="C46" s="2">
-        <v>42992</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47">
-        <v>3007965</v>
-      </c>
-      <c r="C47" s="2">
-        <v>42993</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <v>4110483</v>
-      </c>
-      <c r="C48" s="2">
-        <v>42994</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49">
-        <v>2295632</v>
-      </c>
-      <c r="C49" s="2">
-        <v>42995</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <v>3400293</v>
-      </c>
-      <c r="C50" s="2">
-        <v>42996</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>3335676</v>
-      </c>
-      <c r="C51" s="2">
-        <v>42997</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52">
-        <v>3611202</v>
-      </c>
-      <c r="C52" s="2">
-        <v>42998</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53">
-        <v>3360765</v>
-      </c>
-      <c r="C53" s="2">
-        <v>42999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54">
-        <v>4679269</v>
-      </c>
-      <c r="C54" s="2">
-        <v>43000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55">
-        <v>6456648</v>
-      </c>
-      <c r="C55" s="2">
-        <v>43001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56">
-        <v>2617062</v>
-      </c>
-      <c r="C56" s="2">
-        <v>43002</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57">
-        <v>5116066</v>
-      </c>
-      <c r="C57" s="2">
-        <v>43003</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58">
-        <v>2700403</v>
-      </c>
-      <c r="C58" s="2">
-        <v>43004</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59">
-        <v>4531266</v>
-      </c>
-      <c r="C59" s="2">
-        <v>43005</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60">
-        <v>3843639</v>
-      </c>
-      <c r="C60" s="2">
-        <v>43006</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61">
-        <v>3993075</v>
-      </c>
-      <c r="C61" s="2">
-        <v>43007</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62">
-        <v>4010457</v>
-      </c>
-      <c r="C62" s="2">
         <v>43008</v>
       </c>
     </row>

--- a/file/2.xlsx
+++ b/file/2.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -400,10 +400,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1326791</v>
+        <v>5336899</v>
       </c>
       <c r="C2" s="2">
-        <v>42979</v>
+        <v>42981</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -411,10 +411,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3644049</v>
+        <v>3400545</v>
       </c>
       <c r="C3" s="2">
-        <v>42980</v>
+        <v>42982</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -422,10 +422,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5336899</v>
+        <v>4586362</v>
       </c>
       <c r="C4" s="2">
-        <v>42981</v>
+        <v>42983</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -433,10 +433,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3400545</v>
+        <v>2420770</v>
       </c>
       <c r="C5" s="2">
-        <v>42982</v>
+        <v>42984</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -444,10 +444,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4586362</v>
+        <v>2750071</v>
       </c>
       <c r="C6" s="2">
-        <v>42983</v>
+        <v>42985</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -455,10 +455,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2420770</v>
+        <v>1416658</v>
       </c>
       <c r="C7" s="2">
-        <v>42984</v>
+        <v>42986</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -466,10 +466,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2750071</v>
+        <v>3709129</v>
       </c>
       <c r="C8" s="2">
-        <v>42985</v>
+        <v>42987</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -477,10 +477,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1416658</v>
+        <v>2940634</v>
       </c>
       <c r="C9" s="2">
-        <v>42986</v>
+        <v>42988</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -488,10 +488,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3709129</v>
+        <v>5067419</v>
       </c>
       <c r="C10" s="2">
-        <v>42987</v>
+        <v>42989</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -499,10 +499,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2940634</v>
+        <v>3608774</v>
       </c>
       <c r="C11" s="2">
-        <v>42988</v>
+        <v>42990</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5067419</v>
+        <v>2326671</v>
       </c>
       <c r="C12" s="2">
-        <v>42989</v>
+        <v>42991</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -521,10 +521,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3608774</v>
+        <v>2936348</v>
       </c>
       <c r="C13" s="2">
-        <v>42990</v>
+        <v>42992</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -532,10 +532,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2326671</v>
+        <v>3007965</v>
       </c>
       <c r="C14" s="2">
-        <v>42991</v>
+        <v>42993</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -543,10 +543,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2936348</v>
+        <v>4110483</v>
       </c>
       <c r="C15" s="2">
-        <v>42992</v>
+        <v>42994</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -554,10 +554,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3007965</v>
+        <v>2295632</v>
       </c>
       <c r="C16" s="2">
-        <v>42993</v>
+        <v>42995</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -565,10 +565,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4110483</v>
+        <v>3400293</v>
       </c>
       <c r="C17" s="2">
-        <v>42994</v>
+        <v>42996</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -576,10 +576,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2295632</v>
+        <v>3335676</v>
       </c>
       <c r="C18" s="2">
-        <v>42995</v>
+        <v>42997</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -587,10 +587,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3400293</v>
+        <v>3611202</v>
       </c>
       <c r="C19" s="2">
-        <v>42996</v>
+        <v>42998</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -598,10 +598,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3335676</v>
+        <v>3360765</v>
       </c>
       <c r="C20" s="2">
-        <v>42997</v>
+        <v>42999</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -609,10 +609,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3611202</v>
+        <v>4679269</v>
       </c>
       <c r="C21" s="2">
-        <v>42998</v>
+        <v>43000</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -620,10 +620,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3360765</v>
+        <v>6456648</v>
       </c>
       <c r="C22" s="2">
-        <v>42999</v>
+        <v>43001</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -631,10 +631,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4679269</v>
+        <v>2617062</v>
       </c>
       <c r="C23" s="2">
-        <v>43000</v>
+        <v>43002</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -642,10 +642,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6456648</v>
+        <v>5116066</v>
       </c>
       <c r="C24" s="2">
-        <v>43001</v>
+        <v>43003</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -653,10 +653,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2617062</v>
+        <v>2700403</v>
       </c>
       <c r="C25" s="2">
-        <v>43002</v>
+        <v>43004</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -664,10 +664,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5116066</v>
+        <v>4531266</v>
       </c>
       <c r="C26" s="2">
-        <v>43003</v>
+        <v>43005</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -675,10 +675,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>2700403</v>
+        <v>3843639</v>
       </c>
       <c r="C27" s="2">
-        <v>43004</v>
+        <v>43006</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -686,10 +686,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>4531266</v>
+        <v>3993075</v>
       </c>
       <c r="C28" s="2">
-        <v>43005</v>
+        <v>43007</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -697,10 +697,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>3843639</v>
+        <v>4010457</v>
       </c>
       <c r="C29" s="2">
-        <v>43006</v>
+        <v>43008</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -708,10 +708,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>3993075</v>
+        <v>3066128</v>
       </c>
       <c r="C30" s="2">
-        <v>43007</v>
+        <v>43009</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -719,10 +719,241 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>4010457</v>
+        <v>2984904</v>
       </c>
       <c r="C31" s="2">
-        <v>43008</v>
+        <v>43010</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>4329892</v>
+      </c>
+      <c r="C32" s="2">
+        <v>43011</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>2228147</v>
+      </c>
+      <c r="C33" s="2">
+        <v>43012</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>2710882</v>
+      </c>
+      <c r="C34" s="2">
+        <v>43013</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>4497345</v>
+      </c>
+      <c r="C35" s="2">
+        <v>43014</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>3656957</v>
+      </c>
+      <c r="C36" s="2">
+        <v>43015</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>3299475</v>
+      </c>
+      <c r="C37" s="2">
+        <v>43016</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>2780105</v>
+      </c>
+      <c r="C38" s="2">
+        <v>43017</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>3028465</v>
+      </c>
+      <c r="C39" s="2">
+        <v>43018</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>5821247</v>
+      </c>
+      <c r="C40" s="2">
+        <v>43019</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>4042329</v>
+      </c>
+      <c r="C41" s="2">
+        <v>43020</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>6098105</v>
+      </c>
+      <c r="C42" s="2">
+        <v>43021</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>4589228</v>
+      </c>
+      <c r="C43" s="2">
+        <v>43022</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>4027586</v>
+      </c>
+      <c r="C44" s="2">
+        <v>43023</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>2089932</v>
+      </c>
+      <c r="C45" s="2">
+        <v>43024</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>4295016</v>
+      </c>
+      <c r="C46" s="2">
+        <v>43025</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>4475825</v>
+      </c>
+      <c r="C47" s="2">
+        <v>43026</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>3774454</v>
+      </c>
+      <c r="C48" s="2">
+        <v>43027</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>3991501</v>
+      </c>
+      <c r="C49" s="2">
+        <v>43028</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>3841672</v>
+      </c>
+      <c r="C50" s="2">
+        <v>43029</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>2830118</v>
+      </c>
+      <c r="C51" s="2">
+        <v>43030</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>3074187</v>
+      </c>
+      <c r="C52" s="2">
+        <v>43031</v>
       </c>
     </row>
   </sheetData>

--- a/file/2.xlsx
+++ b/file/2.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -400,10 +400,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5336899</v>
+        <v>3167521</v>
       </c>
       <c r="C2" s="2">
-        <v>42981</v>
+        <v>42891</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -411,10 +411,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3400545</v>
+        <v>2641301</v>
       </c>
       <c r="C3" s="2">
-        <v>42982</v>
+        <v>42892</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -422,10 +422,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4586362</v>
+        <v>1622266</v>
       </c>
       <c r="C4" s="2">
-        <v>42983</v>
+        <v>42893</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -433,10 +433,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2420770</v>
+        <v>3314198</v>
       </c>
       <c r="C5" s="2">
-        <v>42984</v>
+        <v>42894</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -444,10 +444,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2750071</v>
+        <v>4573629</v>
       </c>
       <c r="C6" s="2">
-        <v>42985</v>
+        <v>42895</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -455,10 +455,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1416658</v>
+        <v>3721397</v>
       </c>
       <c r="C7" s="2">
-        <v>42986</v>
+        <v>42896</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -466,10 +466,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3709129</v>
+        <v>4615272</v>
       </c>
       <c r="C8" s="2">
-        <v>42987</v>
+        <v>42897</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -477,10 +477,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2940634</v>
+        <v>3126477</v>
       </c>
       <c r="C9" s="2">
-        <v>42988</v>
+        <v>42898</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -488,10 +488,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5067419</v>
+        <v>3788893</v>
       </c>
       <c r="C10" s="2">
-        <v>42989</v>
+        <v>42899</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -499,10 +499,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3608774</v>
+        <v>3330702</v>
       </c>
       <c r="C11" s="2">
-        <v>42990</v>
+        <v>42900</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -510,10 +510,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2326671</v>
+        <v>5325228</v>
       </c>
       <c r="C12" s="2">
-        <v>42991</v>
+        <v>42901</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -521,10 +521,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2936348</v>
+        <v>3789270</v>
       </c>
       <c r="C13" s="2">
-        <v>42992</v>
+        <v>42902</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -532,10 +532,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3007965</v>
+        <v>3055722</v>
       </c>
       <c r="C14" s="2">
-        <v>42993</v>
+        <v>42903</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -543,10 +543,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4110483</v>
+        <v>4577889</v>
       </c>
       <c r="C15" s="2">
-        <v>42994</v>
+        <v>42904</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -554,10 +554,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2295632</v>
+        <v>4507567</v>
       </c>
       <c r="C16" s="2">
-        <v>42995</v>
+        <v>42905</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -565,10 +565,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3400293</v>
+        <v>3955355</v>
       </c>
       <c r="C17" s="2">
-        <v>42996</v>
+        <v>42906</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -576,10 +576,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3335676</v>
+        <v>2699748</v>
       </c>
       <c r="C18" s="2">
-        <v>42997</v>
+        <v>42907</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -587,10 +587,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3611202</v>
+        <v>2825516</v>
       </c>
       <c r="C19" s="2">
-        <v>42998</v>
+        <v>42908</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -598,10 +598,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3360765</v>
+        <v>3005606</v>
       </c>
       <c r="C20" s="2">
-        <v>42999</v>
+        <v>42909</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -609,10 +609,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4679269</v>
+        <v>4610678</v>
       </c>
       <c r="C21" s="2">
-        <v>43000</v>
+        <v>42910</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -620,10 +620,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6456648</v>
+        <v>3709270</v>
       </c>
       <c r="C22" s="2">
-        <v>43001</v>
+        <v>42911</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -631,10 +631,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2617062</v>
+        <v>4021021</v>
       </c>
       <c r="C23" s="2">
-        <v>43002</v>
+        <v>42912</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -642,10 +642,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5116066</v>
+        <v>3127333</v>
       </c>
       <c r="C24" s="2">
-        <v>43003</v>
+        <v>42913</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -653,10 +653,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2700403</v>
+        <v>3444950</v>
       </c>
       <c r="C25" s="2">
-        <v>43004</v>
+        <v>42914</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -664,10 +664,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>4531266</v>
+        <v>2856107</v>
       </c>
       <c r="C26" s="2">
-        <v>43005</v>
+        <v>42915</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -675,10 +675,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>3843639</v>
+        <v>2809509</v>
       </c>
       <c r="C27" s="2">
-        <v>43006</v>
+        <v>42916</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -686,10 +686,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>3993075</v>
+        <v>3799569</v>
       </c>
       <c r="C28" s="2">
-        <v>43007</v>
+        <v>42917</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -697,10 +697,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>4010457</v>
+        <v>1807428</v>
       </c>
       <c r="C29" s="2">
-        <v>43008</v>
+        <v>42918</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -708,10 +708,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>3066128</v>
+        <v>4927888</v>
       </c>
       <c r="C30" s="2">
-        <v>43009</v>
+        <v>42919</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -719,10 +719,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>2984904</v>
+        <v>3234647</v>
       </c>
       <c r="C31" s="2">
-        <v>43010</v>
+        <v>42920</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -730,10 +730,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>4329892</v>
+        <v>4253580</v>
       </c>
       <c r="C32" s="2">
-        <v>43011</v>
+        <v>42921</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -741,10 +741,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>2228147</v>
+        <v>2212338</v>
       </c>
       <c r="C33" s="2">
-        <v>43012</v>
+        <v>42922</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -752,10 +752,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>2710882</v>
+        <v>2792975</v>
       </c>
       <c r="C34" s="2">
-        <v>43013</v>
+        <v>42923</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -763,10 +763,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>4497345</v>
+        <v>1706002</v>
       </c>
       <c r="C35" s="2">
-        <v>43014</v>
+        <v>42924</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -774,10 +774,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>3656957</v>
+        <v>6584842</v>
       </c>
       <c r="C36" s="2">
-        <v>43015</v>
+        <v>42925</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -785,10 +785,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>3299475</v>
+        <v>3133653</v>
       </c>
       <c r="C37" s="2">
-        <v>43016</v>
+        <v>42926</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -796,10 +796,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>2780105</v>
+        <v>2821930</v>
       </c>
       <c r="C38" s="2">
-        <v>43017</v>
+        <v>42927</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -807,10 +807,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>3028465</v>
+        <v>2962519</v>
       </c>
       <c r="C39" s="2">
-        <v>43018</v>
+        <v>42928</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -818,10 +818,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5821247</v>
+        <v>2437167</v>
       </c>
       <c r="C40" s="2">
-        <v>43019</v>
+        <v>42929</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -829,10 +829,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>4042329</v>
+        <v>4162695</v>
       </c>
       <c r="C41" s="2">
-        <v>43020</v>
+        <v>42930</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -840,10 +840,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6098105</v>
+        <v>5328448</v>
       </c>
       <c r="C42" s="2">
-        <v>43021</v>
+        <v>42931</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -851,10 +851,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>4589228</v>
+        <v>5489553</v>
       </c>
       <c r="C43" s="2">
-        <v>43022</v>
+        <v>42932</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -862,10 +862,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>4027586</v>
+        <v>2572743</v>
       </c>
       <c r="C44" s="2">
-        <v>43023</v>
+        <v>42933</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -873,10 +873,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>2089932</v>
+        <v>2714444</v>
       </c>
       <c r="C45" s="2">
-        <v>43024</v>
+        <v>42934</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -884,10 +884,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>4295016</v>
+        <v>3730023</v>
       </c>
       <c r="C46" s="2">
-        <v>43025</v>
+        <v>42935</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -895,10 +895,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>4475825</v>
+        <v>4119049</v>
       </c>
       <c r="C47" s="2">
-        <v>43026</v>
+        <v>42936</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -906,10 +906,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>3774454</v>
+        <v>4835203</v>
       </c>
       <c r="C48" s="2">
-        <v>43027</v>
+        <v>42937</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -917,10 +917,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>3991501</v>
+        <v>4405191</v>
       </c>
       <c r="C49" s="2">
-        <v>43028</v>
+        <v>42938</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -928,10 +928,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>3841672</v>
+        <v>4008369</v>
       </c>
       <c r="C50" s="2">
-        <v>43029</v>
+        <v>42939</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -939,10 +939,10 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>2830118</v>
+        <v>4413128</v>
       </c>
       <c r="C51" s="2">
-        <v>43030</v>
+        <v>42940</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -950,10 +950,142 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>3074187</v>
+        <v>4576995</v>
       </c>
       <c r="C52" s="2">
-        <v>43031</v>
+        <v>42941</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>3393748</v>
+      </c>
+      <c r="C53" s="2">
+        <v>42942</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>3509003</v>
+      </c>
+      <c r="C54" s="2">
+        <v>42943</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>5380751</v>
+      </c>
+      <c r="C55" s="2">
+        <v>42944</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>4208870</v>
+      </c>
+      <c r="C56" s="2">
+        <v>42945</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>2178757</v>
+      </c>
+      <c r="C57" s="2">
+        <v>42946</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>4242757</v>
+      </c>
+      <c r="C58" s="2">
+        <v>42947</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>6223006</v>
+      </c>
+      <c r="C59" s="2">
+        <v>42948</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>4347481</v>
+      </c>
+      <c r="C60" s="2">
+        <v>42949</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>1721765</v>
+      </c>
+      <c r="C61" s="2">
+        <v>42950</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>3740875</v>
+      </c>
+      <c r="C62" s="2">
+        <v>42951</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>2488827</v>
+      </c>
+      <c r="C63" s="2">
+        <v>42952</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>1827919</v>
+      </c>
+      <c r="C64" s="2">
+        <v>42953</v>
       </c>
     </row>
   </sheetData>
